--- a/Grupo articulo y varios.xlsx
+++ b/Grupo articulo y varios.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfloress\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\TBAJ3UMW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Luis\Desktop\automaztizacion_alicorp\facturas_automatizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBF9477-F9A8-4E5E-A367-206F3847C0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA8F282-0A6D-4595-9AD7-D27AA925DADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INFO!$A$1:$J$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INFO!$A$1:$J$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="86">
   <si>
     <t>Proveedor</t>
   </si>
@@ -288,6 +286,15 @@
   </si>
   <si>
     <t>VIDA LEY CESADO</t>
+  </si>
+  <si>
+    <t>SCTR SALUD ADICIONALES</t>
+  </si>
+  <si>
+    <t>SCTR PENSION</t>
+  </si>
+  <si>
+    <t>SCTR PENSION ADICIONAL</t>
   </si>
 </sst>
 </file>
@@ -329,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -514,6 +527,29 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -799,24 +835,24 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -848,76 +884,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1602</v>
+      </c>
+      <c r="I2" s="3">
+        <v>300080</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1602</v>
+      </c>
+      <c r="I3" s="3">
+        <v>300080</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="13">
-        <v>1012</v>
-      </c>
-      <c r="I2" s="13">
-        <v>1000393</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1012</v>
-      </c>
-      <c r="I3" s="13">
-        <v>1000393</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
@@ -938,18 +974,18 @@
         <v>1012</v>
       </c>
       <c r="I4" s="13">
-        <v>1000613</v>
+        <v>1000393</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
@@ -970,18 +1006,18 @@
         <v>1012</v>
       </c>
       <c r="I5" s="13">
-        <v>1000613</v>
+        <v>1000393</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>9</v>
@@ -1005,15 +1041,15 @@
         <v>1000613</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -1040,12 +1076,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>9</v>
@@ -1072,12 +1108,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>9</v>
@@ -1104,12 +1140,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>9</v>
@@ -1133,15 +1169,15 @@
         <v>1000613</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>9</v>
@@ -1165,15 +1201,15 @@
         <v>1000613</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>9</v>
@@ -1200,12 +1236,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>9</v>
@@ -1232,12 +1268,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>9</v>
@@ -1264,12 +1300,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>9</v>
@@ -1296,12 +1332,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>9</v>
@@ -1328,76 +1364,76 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1012</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1012</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="13">
-        <v>1501</v>
-      </c>
-      <c r="I17" s="14">
-        <v>1000393</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="13">
-        <v>1501</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1000393</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>15</v>
@@ -1405,31 +1441,31 @@
       <c r="D19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="13">
         <v>1501</v>
       </c>
-      <c r="I19" s="13">
-        <v>1000613</v>
+      <c r="I19" s="14">
+        <v>1000393</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
@@ -1437,19 +1473,31 @@
       <c r="D20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1501</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1000393</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>15</v>
@@ -1457,19 +1505,31 @@
       <c r="D21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1501</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>15</v>
@@ -1477,31 +1537,19 @@
       <c r="D22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="13">
-        <v>1501</v>
-      </c>
-      <c r="I22" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>15</v>
@@ -1516,12 +1564,12 @@
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>15</v>
@@ -1529,19 +1577,31 @@
       <c r="D24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1501</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>15</v>
@@ -1549,31 +1609,19 @@
       <c r="D25" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="13">
-        <v>1501</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1000613</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>15</v>
@@ -1581,31 +1629,19 @@
       <c r="D26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="13">
-        <v>1501</v>
-      </c>
-      <c r="I26" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -1613,31 +1649,31 @@
       <c r="D27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="13">
         <v>1501</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="14">
         <v>1000613</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -1664,12 +1700,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>15</v>
@@ -1677,19 +1713,31 @@
       <c r="D29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1501</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>15</v>
@@ -1716,12 +1764,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>15</v>
@@ -1729,95 +1777,83 @@
       <c r="D31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>1501</v>
       </c>
-      <c r="I31" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J31" s="13" t="s">
+      <c r="I32" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1501</v>
+      </c>
+      <c r="I33" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="13">
-        <v>1602</v>
-      </c>
-      <c r="I32" s="13">
-        <v>1000393</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="13">
-        <v>1602</v>
-      </c>
-      <c r="I33" s="14">
-        <v>1000393</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>18</v>
@@ -1837,19 +1873,19 @@
       <c r="H34" s="13">
         <v>1602</v>
       </c>
-      <c r="I34" s="14">
-        <v>1000613</v>
+      <c r="I34" s="13">
+        <v>1000393</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>18</v>
@@ -1857,19 +1893,31 @@
       <c r="D35" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1602</v>
+      </c>
+      <c r="I35" s="14">
+        <v>1000393</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>18</v>
@@ -1877,19 +1925,31 @@
       <c r="D36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1602</v>
+      </c>
+      <c r="I36" s="14">
+        <v>1000613</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>18</v>
@@ -1897,31 +1957,19 @@
       <c r="D37" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="13">
-        <v>1602</v>
-      </c>
-      <c r="I37" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>18</v>
@@ -1936,12 +1984,12 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>52</v>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>18</v>
@@ -1949,19 +1997,31 @@
       <c r="D39" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1602</v>
+      </c>
+      <c r="I39" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>18</v>
@@ -1969,31 +2029,19 @@
       <c r="D40" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="13">
-        <v>1602</v>
-      </c>
-      <c r="I40" s="14">
-        <v>1000613</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>18</v>
@@ -2001,31 +2049,19 @@
       <c r="D41" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="13">
-        <v>1602</v>
-      </c>
-      <c r="I41" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>18</v>
@@ -2033,31 +2069,31 @@
       <c r="D42" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="13">
         <v>1602</v>
       </c>
-      <c r="I42" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J42" s="13" t="s">
+      <c r="I42" s="14">
+        <v>1000613</v>
+      </c>
+      <c r="J42" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>18</v>
@@ -2084,12 +2120,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>18</v>
@@ -2097,19 +2133,31 @@
       <c r="D44" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="13">
+        <v>1602</v>
+      </c>
+      <c r="I44" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>18</v>
@@ -2136,12 +2184,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>18</v>
@@ -2149,95 +2197,83 @@
       <c r="D46" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="13" t="s">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>1602</v>
       </c>
-      <c r="I46" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J46" s="13" t="s">
+      <c r="I47" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J47" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="13">
+        <v>1602</v>
+      </c>
+      <c r="I48" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="13">
-        <v>1901</v>
-      </c>
-      <c r="I47" s="13">
-        <v>1000393</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="13">
-        <v>1901</v>
-      </c>
-      <c r="I48" s="14">
-        <v>1000393</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>22</v>
@@ -2257,19 +2293,19 @@
       <c r="H49" s="13">
         <v>1901</v>
       </c>
-      <c r="I49" s="14">
-        <v>1000613</v>
-      </c>
-      <c r="J49" s="14" t="s">
+      <c r="I49" s="13">
+        <v>1000393</v>
+      </c>
+      <c r="J49" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>22</v>
@@ -2277,19 +2313,31 @@
       <c r="D50" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E50" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="13">
+        <v>1901</v>
+      </c>
+      <c r="I50" s="14">
+        <v>1000393</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>22</v>
@@ -2297,19 +2345,31 @@
       <c r="D51" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E51" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="13">
+        <v>1901</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1000613</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>22</v>
@@ -2324,12 +2384,12 @@
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>22</v>
@@ -2344,12 +2404,12 @@
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>52</v>
+      <c r="B54" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>22</v>
@@ -2364,12 +2424,12 @@
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>53</v>
+      <c r="B55" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>22</v>
@@ -2377,31 +2437,19 @@
       <c r="D55" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="13">
-        <v>1901</v>
-      </c>
-      <c r="I55" s="14">
-        <v>1000613</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>22</v>
@@ -2416,12 +2464,12 @@
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>22</v>
@@ -2429,19 +2477,31 @@
       <c r="D57" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="13">
+        <v>1901</v>
+      </c>
+      <c r="I57" s="14">
+        <v>1000613</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>22</v>
@@ -2456,12 +2516,12 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>22</v>
@@ -2476,12 +2536,12 @@
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>22</v>
@@ -2496,12 +2556,12 @@
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>22</v>
@@ -2509,95 +2569,71 @@
       <c r="D61" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="13" t="s">
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H63" s="13">
         <v>1901</v>
       </c>
-      <c r="I61" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J61" s="13" t="s">
+      <c r="I63" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J63" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="13">
-        <v>2126</v>
-      </c>
-      <c r="I62" s="13">
-        <v>1000393</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="13">
-        <v>2126</v>
-      </c>
-      <c r="I63" s="14">
-        <v>1000393</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>25</v>
@@ -2605,19 +2641,31 @@
       <c r="D64" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E64" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="13">
+        <v>2126</v>
+      </c>
+      <c r="I64" s="13">
+        <v>1000393</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>25</v>
@@ -2625,31 +2673,31 @@
       <c r="D65" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>28</v>
+      <c r="E65" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H65" s="13">
         <v>2126</v>
       </c>
       <c r="I65" s="14">
-        <v>1000613</v>
-      </c>
-      <c r="J65" s="13" t="s">
+        <v>1000393</v>
+      </c>
+      <c r="J65" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>25</v>
@@ -2657,31 +2705,19 @@
       <c r="D66" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="13">
-        <v>2126</v>
-      </c>
-      <c r="I66" s="14">
-        <v>1000613</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>25</v>
@@ -2689,19 +2725,31 @@
       <c r="D67" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E67" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="13">
+        <v>2126</v>
+      </c>
+      <c r="I67" s="14">
+        <v>1000613</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>25</v>
@@ -2709,19 +2757,31 @@
       <c r="D68" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E68" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="13">
+        <v>2126</v>
+      </c>
+      <c r="I68" s="14">
+        <v>1000613</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>52</v>
+      <c r="B69" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>25</v>
@@ -2736,12 +2796,12 @@
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>53</v>
+      <c r="B70" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>25</v>
@@ -2749,31 +2809,19 @@
       <c r="D70" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="13">
-        <v>2126</v>
-      </c>
-      <c r="I70" s="14">
-        <v>1000613</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>25</v>
@@ -2788,12 +2836,12 @@
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>25</v>
@@ -2801,19 +2849,31 @@
       <c r="D72" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E72" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="13">
+        <v>2126</v>
+      </c>
+      <c r="I72" s="14">
+        <v>1000613</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>25</v>
@@ -2828,12 +2888,12 @@
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>25</v>
@@ -2848,12 +2908,12 @@
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>25</v>
@@ -2868,12 +2928,12 @@
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>25</v>
@@ -2881,95 +2941,71 @@
       <c r="D76" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="14" t="s">
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H78" s="13">
         <v>2126</v>
       </c>
-      <c r="I76" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J76" s="13" t="s">
+      <c r="I78" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J78" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="1" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="13">
-        <v>2209</v>
-      </c>
-      <c r="I77" s="13">
-        <v>1000393</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" s="13">
-        <v>2209</v>
-      </c>
-      <c r="I78" s="13">
-        <v>1000393</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>30</v>
@@ -2990,18 +3026,18 @@
         <v>2209</v>
       </c>
       <c r="I79" s="13">
-        <v>1000613</v>
+        <v>1000393</v>
       </c>
       <c r="J79" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>30</v>
@@ -3009,31 +3045,31 @@
       <c r="D80" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="13" t="s">
         <v>31</v>
       </c>
       <c r="H80" s="13">
         <v>2209</v>
       </c>
       <c r="I80" s="13">
-        <v>1000613</v>
+        <v>1000393</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>30</v>
@@ -3047,7 +3083,7 @@
       <c r="F81" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="13" t="s">
         <v>31</v>
       </c>
       <c r="H81" s="13">
@@ -3057,15 +3093,15 @@
         <v>1000613</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>30</v>
@@ -3073,7 +3109,7 @@
       <c r="D82" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="13" t="s">
@@ -3092,12 +3128,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>30</v>
@@ -3124,12 +3160,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>52</v>
+      <c r="B84" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>30</v>
@@ -3137,19 +3173,31 @@
       <c r="D84" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E84" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="13">
+        <v>2209</v>
+      </c>
+      <c r="I84" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>53</v>
+      <c r="B85" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>30</v>
@@ -3157,7 +3205,7 @@
       <c r="D85" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="13" t="s">
@@ -3169,19 +3217,19 @@
       <c r="H85" s="13">
         <v>2209</v>
       </c>
-      <c r="I85" s="14">
-        <v>1000613</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I85" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>30</v>
@@ -3189,31 +3237,19 @@
       <c r="D86" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" s="13">
-        <v>2209</v>
-      </c>
-      <c r="I86" s="14">
-        <v>1000613</v>
-      </c>
-      <c r="J86" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>30</v>
@@ -3240,12 +3276,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>30</v>
@@ -3272,12 +3308,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>30</v>
@@ -3285,19 +3321,31 @@
       <c r="D89" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E89" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="13">
+        <v>2209</v>
+      </c>
+      <c r="I89" s="14">
+        <v>1000613</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>30</v>
@@ -3305,7 +3353,7 @@
       <c r="D90" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F90" s="13" t="s">
@@ -3317,179 +3365,167 @@
       <c r="H90" s="13">
         <v>2209</v>
       </c>
-      <c r="I90" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J90" s="13" t="s">
+      <c r="I90" s="14">
+        <v>1000613</v>
+      </c>
+      <c r="J90" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="13">
+        <v>2209</v>
+      </c>
+      <c r="I92" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D93" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E91" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="14" t="s">
+      <c r="E93" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="28">
+      <c r="H93" s="28">
         <v>1602</v>
       </c>
-      <c r="I91" s="28">
-        <v>1000613</v>
-      </c>
-      <c r="J91" s="28" t="s">
+      <c r="I93" s="28">
+        <v>1000613</v>
+      </c>
+      <c r="J93" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="27" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C94" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D94" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="14" t="s">
+      <c r="E94" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="28">
+      <c r="H94" s="28">
         <v>1602</v>
       </c>
-      <c r="I92" s="28">
-        <v>1000613</v>
-      </c>
-      <c r="J92" s="28" t="s">
+      <c r="I94" s="28">
+        <v>1000613</v>
+      </c>
+      <c r="J94" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C95" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D95" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E93" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="14" t="s">
+      <c r="E95" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H95" s="13">
         <v>2209</v>
       </c>
-      <c r="I93" s="13">
-        <v>1000613</v>
-      </c>
-      <c r="J93" s="13" t="s">
+      <c r="I95" s="13">
+        <v>1000613</v>
+      </c>
+      <c r="J95" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="4">
-        <v>1012</v>
-      </c>
-      <c r="I94" s="3">
-        <v>1000395</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="4">
-        <v>1012</v>
-      </c>
-      <c r="I95" s="3">
-        <v>1000395</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>9</v>
@@ -3510,18 +3546,18 @@
         <v>1012</v>
       </c>
       <c r="I96" s="3">
-        <v>1000399</v>
+        <v>1000395</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>9</v>
@@ -3548,12 +3584,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>9</v>
@@ -3574,18 +3610,18 @@
         <v>1012</v>
       </c>
       <c r="I98" s="3">
-        <v>1000395</v>
+        <v>1000399</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>82</v>
+      <c r="B99" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>9</v>
@@ -3606,24 +3642,24 @@
         <v>1012</v>
       </c>
       <c r="I99" s="3">
-        <v>1000399</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1000395</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>28</v>
@@ -3632,30 +3668,30 @@
         <v>29</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H100" s="4">
-        <v>1501</v>
+        <v>1012</v>
       </c>
       <c r="I100" s="3">
         <v>1000395</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>62</v>
+      <c r="B101" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>28</v>
@@ -3664,24 +3700,24 @@
         <v>29</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H101" s="4">
-        <v>1501</v>
+        <v>1012</v>
       </c>
       <c r="I101" s="3">
-        <v>1000395</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1000399</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>15</v>
@@ -3702,18 +3738,18 @@
         <v>1501</v>
       </c>
       <c r="I102" s="3">
-        <v>1000399</v>
+        <v>1000395</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>15</v>
@@ -3740,12 +3776,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>15</v>
@@ -3766,18 +3802,18 @@
         <v>1501</v>
       </c>
       <c r="I104" s="3">
-        <v>1000395</v>
+        <v>1000399</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>82</v>
+      <c r="B105" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>15</v>
@@ -3785,95 +3821,95 @@
       <c r="D105" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="G105" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H105" s="4">
         <v>1501</v>
       </c>
-      <c r="I105" s="6">
-        <v>1000399</v>
-      </c>
-      <c r="J105" s="7" t="s">
+      <c r="I105" s="3">
+        <v>1000395</v>
+      </c>
+      <c r="J105" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E106" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G106" s="6" t="s">
-        <v>19</v>
+      <c r="G106" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H106" s="4">
-        <v>1602</v>
-      </c>
-      <c r="I106" s="6">
+        <v>1501</v>
+      </c>
+      <c r="I106" s="3">
         <v>1000395</v>
       </c>
-      <c r="J106" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J106" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>62</v>
+      <c r="B107" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E107" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>19</v>
+      <c r="G107" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H107" s="4">
-        <v>1602</v>
-      </c>
-      <c r="I107" s="3">
-        <v>1000395</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1501</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1000399</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>18</v>
@@ -3881,31 +3917,31 @@
       <c r="D108" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H108" s="4">
         <v>1602</v>
       </c>
-      <c r="I108" s="3">
-        <v>1000399</v>
-      </c>
-      <c r="J108" s="4" t="s">
+      <c r="I108" s="6">
+        <v>1000395</v>
+      </c>
+      <c r="J108" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>18</v>
@@ -3932,12 +3968,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>18</v>
@@ -3945,31 +3981,31 @@
       <c r="D110" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G110" s="6" t="s">
+      <c r="G110" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H110" s="4">
         <v>1602</v>
       </c>
-      <c r="I110" s="6">
-        <v>1000395</v>
-      </c>
-      <c r="J110" s="7" t="s">
+      <c r="I110" s="3">
+        <v>1000399</v>
+      </c>
+      <c r="J110" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>82</v>
+      <c r="B111" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>18</v>
@@ -3990,49 +4026,77 @@
         <v>1602</v>
       </c>
       <c r="I111" s="3">
+        <v>1000395</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1602</v>
+      </c>
+      <c r="I112" s="6">
+        <v>1000395</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="4">
+        <v>1602</v>
+      </c>
+      <c r="I113" s="3">
         <v>1000399</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="J113" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112" s="8"/>
-      <c r="B112" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" s="8"/>
-      <c r="B113" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="9"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>8</v>
       </c>
@@ -4064,10 +4128,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115" s="8"/>
-      <c r="B115" s="2" t="s">
-        <v>63</v>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>22</v>
@@ -4075,69 +4141,95 @@
       <c r="D115" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A116" s="8"/>
+      <c r="E115" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1901</v>
+      </c>
+      <c r="I115" s="6">
+        <v>1000399</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="9"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" s="4">
+        <v>2126</v>
+      </c>
+      <c r="I116" s="3">
+        <v>1000395</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>82</v>
+      <c r="B117" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E117" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E117" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G117" s="6" t="s">
-        <v>23</v>
+      <c r="G117" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H117" s="4">
-        <v>1901</v>
-      </c>
-      <c r="I117" s="6">
-        <v>1000399</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2126</v>
+      </c>
+      <c r="I117" s="3">
+        <v>1000395</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>25</v>
@@ -4158,18 +4250,18 @@
         <v>2126</v>
       </c>
       <c r="I118" s="3">
-        <v>1000395</v>
+        <v>1000399</v>
       </c>
       <c r="J118" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>25</v>
@@ -4196,12 +4288,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>25</v>
@@ -4222,18 +4314,18 @@
         <v>2126</v>
       </c>
       <c r="I120" s="3">
-        <v>1000399</v>
+        <v>1000395</v>
       </c>
       <c r="J120" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>63</v>
+      <c r="B121" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>25</v>
@@ -4241,34 +4333,34 @@
       <c r="D121" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H121" s="4">
         <v>2126</v>
       </c>
-      <c r="I121" s="3">
-        <v>1000395</v>
-      </c>
-      <c r="J121" s="4" t="s">
+      <c r="I121" s="6">
+        <v>1000399</v>
+      </c>
+      <c r="J121" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>75</v>
@@ -4280,56 +4372,56 @@
         <v>29</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H122" s="4">
-        <v>2126</v>
+        <v>2209</v>
       </c>
       <c r="I122" s="3">
         <v>1000395</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>82</v>
+      <c r="B123" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G123" s="6" t="s">
-        <v>26</v>
+      <c r="G123" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H123" s="4">
-        <v>2126</v>
-      </c>
-      <c r="I123" s="6">
-        <v>1000399</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2209</v>
+      </c>
+      <c r="I123" s="3">
+        <v>1000395</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>30</v>
@@ -4350,18 +4442,18 @@
         <v>2209</v>
       </c>
       <c r="I124" s="3">
-        <v>1000395</v>
+        <v>1000399</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>30</v>
@@ -4388,12 +4480,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>30</v>
@@ -4414,18 +4506,18 @@
         <v>2209</v>
       </c>
       <c r="I126" s="3">
-        <v>1000399</v>
+        <v>1000395</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>63</v>
+      <c r="B127" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>30</v>
@@ -4446,180 +4538,176 @@
         <v>2209</v>
       </c>
       <c r="I127" s="3">
+        <v>1000399</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" s="37">
+        <v>2209</v>
+      </c>
+      <c r="I128" s="35">
         <v>1000395</v>
       </c>
-      <c r="J127" s="4" t="s">
+      <c r="J128" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A128" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H128" s="4">
-        <v>2209</v>
-      </c>
-      <c r="I128" s="3">
-        <v>1000395</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A129" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>75</v>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H129" s="4">
-        <v>2209</v>
+        <v>12</v>
+      </c>
+      <c r="H129" s="28">
+        <v>1012</v>
       </c>
       <c r="I129" s="3">
-        <v>1000399</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1000613</v>
+      </c>
+      <c r="J129" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B130" s="26"/>
       <c r="C130" s="11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H130" s="13">
-        <v>1602</v>
+        <v>1012</v>
       </c>
       <c r="I130" s="3">
-        <v>300080</v>
-      </c>
-      <c r="J130" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1000622</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B131" s="26"/>
       <c r="C131" s="11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H131" s="13">
-        <v>1602</v>
+        <v>1012</v>
       </c>
       <c r="I131" s="3">
-        <v>300080</v>
-      </c>
-      <c r="J131" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1000373</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H132" s="13">
-        <v>1012</v>
+        <v>1602</v>
       </c>
       <c r="I132" s="3">
-        <v>1000622</v>
+        <v>1000373</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B133" s="26"/>
       <c r="C133" s="11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>43</v>
@@ -4628,115 +4716,99 @@
         <v>44</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H133" s="13">
-        <v>1012</v>
+        <v>2209</v>
       </c>
       <c r="I133" s="3">
         <v>1000373</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A134" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B134" s="26"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C134" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H134" s="13">
-        <v>1602</v>
-      </c>
-      <c r="I134" s="3">
-        <v>1000373</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A135" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B135" s="26"/>
+        <v>74</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="9"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C135" s="11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H135" s="13">
-        <v>2209</v>
-      </c>
-      <c r="I135" s="3">
-        <v>1000373</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A136" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="28">
-        <v>1012</v>
-      </c>
-      <c r="I136" s="3">
-        <v>1000613</v>
-      </c>
-      <c r="J136" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="9"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="9"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B143" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J136" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J137" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A79:J133">
+      <sortCondition ref="G1:G137"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
